--- a/biology/Botanique/Cunoniaceae/Cunoniaceae.xlsx
+++ b/biology/Botanique/Cunoniaceae/Cunoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cunoniaceae sont une famille de plantes dicotylédones comprenant presque 300 espèces réparties en une vingtaine de genres.
 Ce sont des arbres et des arbustes des régions tempérées à tropicales plutôt originaires de l'hémisphère sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cunonia nommé en hommage au poète écrivain botaniste et commerçant allemand Johann Christian Cuno (en) (1708–1783). Très lié à la Hollande, il écrivit en 1750 un poème décrivant le  jardin exotique qu'il avait planté près d'Amsterdam. Il écrivit aussi une poésie accompagnant la description du genre Wachendorfia (Haemodoraceae), honorant les botanistes néerlandais Evert Jacob van Wachendorff (de) (1703-1758) et Johannes Burman (1707-1780)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cunonia nommé en hommage au poète écrivain botaniste et commerçant allemand Johann Christian Cuno (en) (1708–1783). Très lié à la Hollande, il écrivit en 1750 un poème décrivant le  jardin exotique qu'il avait planté près d'Amsterdam. Il écrivit aussi une poésie accompagnant la description du genre Wachendorfia (Haemodoraceae), honorant les botanistes néerlandais Evert Jacob van Wachendorff (de) (1703-1758) et Johannes Burman (1707-1780).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] situe cette famille dans l'ordre des Oxalidales. En outre, elle y intègre les genres Bauera et Davidsonia endémiques d'Australie (Respectivement placés dans les Baueraceae et les Davidsoniaceae, en classification classique) et le genre Eucryphia, placé dans la famille des Eucryphiaceae en classification classique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) situe cette famille dans l'ordre des Oxalidales. En outre, elle y intègre les genres Bauera et Davidsonia endémiques d'Australie (Respectivement placés dans les Baueraceae et les Davidsoniaceae, en classification classique) et le genre Eucryphia, placé dans la famille des Eucryphiaceae en classification classique.
 Le genre Aphanopetalum est, lui, placé à part pour constituer la famille des Aphanopetalaceae.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016) :
 Ackama A. Cunningham
 Acrophyllum Bentham
 Aistopetalum Schltr.
@@ -605,7 +623,7 @@
 Spiraeopsis Miquel
 Vesselowskya Pamp.
 Weinmannia L.
-Selon NCBI  (11 décembre 2016)[4] :
+Selon NCBI  (11 décembre 2016) :
 Ackama
 Acrophyllum
 Acsmithia
@@ -632,7 +650,7 @@
 Spiraeopsis
 Vesselowskya
 Weinmannia
-Selon DELTA Angio           (11 décembre 2016)[5] :
+Selon DELTA Angio           (11 décembre 2016) :
 Acrophyllum
 Acsmithia
 Aistopetalum
@@ -654,7 +672,7 @@
 Spiraeanthemum
 Vesselowskya
 Weinmannia
-Selon ITIS      (11 décembre 2016)[6] :
+Selon ITIS      (11 décembre 2016) :
 Eucryphia Cav
 Weinmannia L.</t>
         </is>
